--- a/7. Quorum sensing activity/QS_test.xlsx
+++ b/7. Quorum sensing activity/QS_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/7. Quorum sensing activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAEFA3EC-B384-A548-AC49-A73A78692579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893D55C-5208-B24E-8402-EA6C45F806D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{207F5AC4-631F-EB4B-892E-FF4EC7A9A2C3}"/>
+    <workbookView xWindow="2880" yWindow="2840" windowWidth="27240" windowHeight="16440" xr2:uid="{207F5AC4-631F-EB4B-892E-FF4EC7A9A2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,7 +522,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -717,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -735,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -744,7 +744,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -753,7 +753,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -762,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -771,7 +771,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -789,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -798,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
